--- a/LR3/table_1_47.xlsx
+++ b/LR3/table_1_47.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\IT\IT_LR\LR3\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="8_{31169570-B9CE-46C6-81F3-47CD89F1780C}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{1503F490-358A-4A21-BBA9-A01E1DE3EC32}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12720" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -527,7 +527,7 @@
   <dimension ref="A1:M46"/>
   <sheetViews>
     <sheetView tabSelected="1" zoomScale="70" zoomScaleNormal="70" workbookViewId="0">
-      <selection activeCell="L10" sqref="L10"/>
+      <selection activeCell="G35" sqref="G35"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
@@ -600,7 +600,7 @@
       <c r="M2" s="1"/>
     </row>
     <row r="3" spans="1:13" ht="15.6" x14ac:dyDescent="0.3">
-      <c r="A3" s="1">
+      <c r="A3" s="4">
         <v>1</v>
       </c>
       <c r="B3" s="1" t="s">
@@ -642,7 +642,7 @@
       <c r="M3" s="1"/>
     </row>
     <row r="4" spans="1:13" ht="15.6" x14ac:dyDescent="0.3">
-      <c r="A4" s="1">
+      <c r="A4" s="4">
         <f>A3+1</f>
         <v>2</v>
       </c>
@@ -662,9 +662,11 @@
         <v>3593.15</v>
       </c>
       <c r="F4" s="2">
+        <f>F3</f>
         <v>44813</v>
       </c>
       <c r="G4" s="2">
+        <f>G3+1</f>
         <v>44806</v>
       </c>
       <c r="H4" s="1">
@@ -686,7 +688,7 @@
       <c r="M4" s="1"/>
     </row>
     <row r="5" spans="1:13" ht="15.6" x14ac:dyDescent="0.3">
-      <c r="A5" s="1">
+      <c r="A5" s="4">
         <f t="shared" ref="A5:A38" si="5">A4+1</f>
         <v>3</v>
       </c>
@@ -706,9 +708,11 @@
         <v>3567.3</v>
       </c>
       <c r="F5" s="2">
+        <f t="shared" ref="F5:F38" si="7">F4</f>
         <v>44813</v>
       </c>
       <c r="G5" s="2">
+        <f t="shared" ref="G5:G38" si="8">G4+1</f>
         <v>44807</v>
       </c>
       <c r="H5" s="1">
@@ -730,7 +734,7 @@
       <c r="M5" s="1"/>
     </row>
     <row r="6" spans="1:13" ht="15.6" x14ac:dyDescent="0.3">
-      <c r="A6" s="1">
+      <c r="A6" s="4">
         <f t="shared" si="5"/>
         <v>4</v>
       </c>
@@ -750,9 +754,11 @@
         <v>3541.4500000000003</v>
       </c>
       <c r="F6" s="2">
+        <f t="shared" si="7"/>
         <v>44813</v>
       </c>
       <c r="G6" s="2">
+        <f t="shared" si="8"/>
         <v>44808</v>
       </c>
       <c r="H6" s="1">
@@ -774,7 +780,7 @@
       <c r="M6" s="1"/>
     </row>
     <row r="7" spans="1:13" ht="15.6" x14ac:dyDescent="0.3">
-      <c r="A7" s="1">
+      <c r="A7" s="4">
         <f t="shared" si="5"/>
         <v>5</v>
       </c>
@@ -794,9 +800,11 @@
         <v>3515.6000000000004</v>
       </c>
       <c r="F7" s="2">
+        <f t="shared" si="7"/>
         <v>44813</v>
       </c>
       <c r="G7" s="2">
+        <f t="shared" si="8"/>
         <v>44809</v>
       </c>
       <c r="H7" s="1">
@@ -818,7 +826,7 @@
       <c r="M7" s="1"/>
     </row>
     <row r="8" spans="1:13" ht="15.6" x14ac:dyDescent="0.3">
-      <c r="A8" s="1">
+      <c r="A8" s="4">
         <f t="shared" si="5"/>
         <v>6</v>
       </c>
@@ -838,9 +846,11 @@
         <v>3489.75</v>
       </c>
       <c r="F8" s="2">
+        <f t="shared" si="7"/>
         <v>44813</v>
       </c>
       <c r="G8" s="2">
+        <f t="shared" si="8"/>
         <v>44810</v>
       </c>
       <c r="H8" s="1">
@@ -862,7 +872,7 @@
       <c r="M8" s="1"/>
     </row>
     <row r="9" spans="1:13" ht="15.6" x14ac:dyDescent="0.3">
-      <c r="A9" s="1">
+      <c r="A9" s="4">
         <f t="shared" si="5"/>
         <v>7</v>
       </c>
@@ -882,9 +892,11 @@
         <v>3463.9</v>
       </c>
       <c r="F9" s="2">
+        <f t="shared" si="7"/>
         <v>44813</v>
       </c>
       <c r="G9" s="2">
+        <f t="shared" si="8"/>
         <v>44811</v>
       </c>
       <c r="H9" s="1">
@@ -906,7 +918,7 @@
       <c r="M9" s="1"/>
     </row>
     <row r="10" spans="1:13" ht="15.6" x14ac:dyDescent="0.3">
-      <c r="A10" s="1">
+      <c r="A10" s="4">
         <f t="shared" si="5"/>
         <v>8</v>
       </c>
@@ -926,9 +938,11 @@
         <v>3438.05</v>
       </c>
       <c r="F10" s="2">
+        <f t="shared" si="7"/>
         <v>44813</v>
       </c>
       <c r="G10" s="2">
+        <f t="shared" si="8"/>
         <v>44812</v>
       </c>
       <c r="H10" s="1">
@@ -950,7 +964,7 @@
       <c r="M10" s="1"/>
     </row>
     <row r="11" spans="1:13" ht="15.6" x14ac:dyDescent="0.3">
-      <c r="A11" s="1">
+      <c r="A11" s="4">
         <f t="shared" si="5"/>
         <v>9</v>
       </c>
@@ -970,9 +984,11 @@
         <v>3412.2000000000003</v>
       </c>
       <c r="F11" s="2">
+        <f t="shared" si="7"/>
         <v>44813</v>
       </c>
       <c r="G11" s="2">
+        <f t="shared" si="8"/>
         <v>44813</v>
       </c>
       <c r="H11" s="1">
@@ -994,7 +1010,7 @@
       <c r="M11" s="1"/>
     </row>
     <row r="12" spans="1:13" ht="15.6" x14ac:dyDescent="0.3">
-      <c r="A12" s="1">
+      <c r="A12" s="4">
         <f t="shared" si="5"/>
         <v>10</v>
       </c>
@@ -1014,9 +1030,11 @@
         <v>3386.3500000000004</v>
       </c>
       <c r="F12" s="2">
+        <f t="shared" si="7"/>
         <v>44813</v>
       </c>
       <c r="G12" s="2">
+        <f t="shared" si="8"/>
         <v>44814</v>
       </c>
       <c r="H12" s="1">
@@ -1038,7 +1056,7 @@
       <c r="M12" s="1"/>
     </row>
     <row r="13" spans="1:13" ht="15.6" x14ac:dyDescent="0.3">
-      <c r="A13" s="1">
+      <c r="A13" s="4">
         <f t="shared" si="5"/>
         <v>11</v>
       </c>
@@ -1058,13 +1076,15 @@
         <v>3360.5</v>
       </c>
       <c r="F13" s="2">
+        <f t="shared" si="7"/>
         <v>44813</v>
       </c>
       <c r="G13" s="2">
+        <f t="shared" si="8"/>
         <v>44815</v>
       </c>
       <c r="H13" s="1">
-        <f t="shared" ref="H13:H38" si="7">IF(G13&gt;F13,G13-F13,0)</f>
+        <f t="shared" ref="H13:H38" si="9">IF(G13&gt;F13,G13-F13,0)</f>
         <v>2</v>
       </c>
       <c r="I13" s="1">
@@ -1082,7 +1102,7 @@
       <c r="M13" s="1"/>
     </row>
     <row r="14" spans="1:13" ht="15.6" x14ac:dyDescent="0.3">
-      <c r="A14" s="1">
+      <c r="A14" s="4">
         <f t="shared" si="5"/>
         <v>12</v>
       </c>
@@ -1102,13 +1122,15 @@
         <v>3334.65</v>
       </c>
       <c r="F14" s="2">
+        <f t="shared" si="7"/>
         <v>44813</v>
       </c>
       <c r="G14" s="2">
+        <f t="shared" si="8"/>
         <v>44816</v>
       </c>
       <c r="H14" s="1">
-        <f t="shared" si="7"/>
+        <f t="shared" si="9"/>
         <v>3</v>
       </c>
       <c r="I14" s="1">
@@ -1126,7 +1148,7 @@
       <c r="M14" s="1"/>
     </row>
     <row r="15" spans="1:13" ht="15.6" x14ac:dyDescent="0.3">
-      <c r="A15" s="1">
+      <c r="A15" s="4">
         <f t="shared" si="5"/>
         <v>13</v>
       </c>
@@ -1146,13 +1168,15 @@
         <v>3308.8</v>
       </c>
       <c r="F15" s="2">
+        <f t="shared" si="7"/>
         <v>44813</v>
       </c>
       <c r="G15" s="2">
+        <f t="shared" si="8"/>
         <v>44817</v>
       </c>
       <c r="H15" s="1">
-        <f t="shared" si="7"/>
+        <f t="shared" si="9"/>
         <v>4</v>
       </c>
       <c r="I15" s="1">
@@ -1170,7 +1194,7 @@
       <c r="M15" s="1"/>
     </row>
     <row r="16" spans="1:13" ht="15.6" x14ac:dyDescent="0.3">
-      <c r="A16" s="1">
+      <c r="A16" s="4">
         <f t="shared" si="5"/>
         <v>14</v>
       </c>
@@ -1190,13 +1214,15 @@
         <v>3282.9500000000003</v>
       </c>
       <c r="F16" s="2">
+        <f t="shared" si="7"/>
         <v>44813</v>
       </c>
       <c r="G16" s="2">
+        <f t="shared" si="8"/>
         <v>44818</v>
       </c>
       <c r="H16" s="1">
-        <f t="shared" si="7"/>
+        <f t="shared" si="9"/>
         <v>5</v>
       </c>
       <c r="I16" s="1">
@@ -1214,7 +1240,7 @@
       <c r="M16" s="1"/>
     </row>
     <row r="17" spans="1:13" ht="15.6" x14ac:dyDescent="0.3">
-      <c r="A17" s="1">
+      <c r="A17" s="4">
         <f t="shared" si="5"/>
         <v>15</v>
       </c>
@@ -1234,13 +1260,15 @@
         <v>3257.1000000000004</v>
       </c>
       <c r="F17" s="2">
+        <f t="shared" si="7"/>
         <v>44813</v>
       </c>
       <c r="G17" s="2">
+        <f t="shared" si="8"/>
         <v>44819</v>
       </c>
       <c r="H17" s="1">
-        <f t="shared" si="7"/>
+        <f t="shared" si="9"/>
         <v>6</v>
       </c>
       <c r="I17" s="1">
@@ -1258,7 +1286,7 @@
       <c r="M17" s="1"/>
     </row>
     <row r="18" spans="1:13" ht="15.6" x14ac:dyDescent="0.3">
-      <c r="A18" s="1">
+      <c r="A18" s="4">
         <f t="shared" si="5"/>
         <v>16</v>
       </c>
@@ -1278,13 +1306,15 @@
         <v>3231.25</v>
       </c>
       <c r="F18" s="2">
+        <f t="shared" si="7"/>
         <v>44813</v>
       </c>
       <c r="G18" s="2">
+        <f t="shared" si="8"/>
         <v>44820</v>
       </c>
       <c r="H18" s="1">
-        <f t="shared" si="7"/>
+        <f t="shared" si="9"/>
         <v>7</v>
       </c>
       <c r="I18" s="1">
@@ -1302,7 +1332,7 @@
       <c r="M18" s="1"/>
     </row>
     <row r="19" spans="1:13" ht="15.6" x14ac:dyDescent="0.3">
-      <c r="A19" s="1">
+      <c r="A19" s="4">
         <f t="shared" si="5"/>
         <v>17</v>
       </c>
@@ -1322,13 +1352,15 @@
         <v>3205.4</v>
       </c>
       <c r="F19" s="2">
+        <f t="shared" si="7"/>
         <v>44813</v>
       </c>
       <c r="G19" s="2">
+        <f t="shared" si="8"/>
         <v>44821</v>
       </c>
       <c r="H19" s="1">
-        <f t="shared" si="7"/>
+        <f t="shared" si="9"/>
         <v>8</v>
       </c>
       <c r="I19" s="1">
@@ -1346,7 +1378,7 @@
       <c r="M19" s="1"/>
     </row>
     <row r="20" spans="1:13" ht="15.6" x14ac:dyDescent="0.3">
-      <c r="A20" s="1">
+      <c r="A20" s="4">
         <f t="shared" si="5"/>
         <v>18</v>
       </c>
@@ -1366,13 +1398,15 @@
         <v>3179.55</v>
       </c>
       <c r="F20" s="2">
+        <f t="shared" si="7"/>
         <v>44813</v>
       </c>
       <c r="G20" s="2">
+        <f t="shared" si="8"/>
         <v>44822</v>
       </c>
       <c r="H20" s="1">
-        <f t="shared" si="7"/>
+        <f t="shared" si="9"/>
         <v>9</v>
       </c>
       <c r="I20" s="1">
@@ -1390,7 +1424,7 @@
       <c r="M20" s="1"/>
     </row>
     <row r="21" spans="1:13" ht="15.6" x14ac:dyDescent="0.3">
-      <c r="A21" s="1">
+      <c r="A21" s="4">
         <f t="shared" si="5"/>
         <v>19</v>
       </c>
@@ -1410,13 +1444,15 @@
         <v>3153.7000000000003</v>
       </c>
       <c r="F21" s="2">
+        <f t="shared" si="7"/>
         <v>44813</v>
       </c>
       <c r="G21" s="2">
+        <f t="shared" si="8"/>
         <v>44823</v>
       </c>
       <c r="H21" s="1">
-        <f t="shared" si="7"/>
+        <f t="shared" si="9"/>
         <v>10</v>
       </c>
       <c r="I21" s="1">
@@ -1434,7 +1470,7 @@
       <c r="M21" s="1"/>
     </row>
     <row r="22" spans="1:13" ht="15.6" x14ac:dyDescent="0.3">
-      <c r="A22" s="1">
+      <c r="A22" s="4">
         <f t="shared" si="5"/>
         <v>20</v>
       </c>
@@ -1454,13 +1490,15 @@
         <v>3127.8500000000004</v>
       </c>
       <c r="F22" s="2">
+        <f t="shared" si="7"/>
         <v>44813</v>
       </c>
       <c r="G22" s="2">
+        <f t="shared" si="8"/>
         <v>44824</v>
       </c>
       <c r="H22" s="1">
-        <f t="shared" si="7"/>
+        <f t="shared" si="9"/>
         <v>11</v>
       </c>
       <c r="I22" s="1">
@@ -1478,7 +1516,7 @@
       <c r="M22" s="1"/>
     </row>
     <row r="23" spans="1:13" ht="15.6" x14ac:dyDescent="0.3">
-      <c r="A23" s="1">
+      <c r="A23" s="4">
         <f t="shared" si="5"/>
         <v>21</v>
       </c>
@@ -1498,13 +1536,15 @@
         <v>3102</v>
       </c>
       <c r="F23" s="2">
+        <f t="shared" si="7"/>
         <v>44813</v>
       </c>
       <c r="G23" s="2">
+        <f t="shared" si="8"/>
         <v>44825</v>
       </c>
       <c r="H23" s="1">
-        <f t="shared" si="7"/>
+        <f t="shared" si="9"/>
         <v>12</v>
       </c>
       <c r="I23" s="1">
@@ -1522,7 +1562,7 @@
       <c r="M23" s="1"/>
     </row>
     <row r="24" spans="1:13" ht="15.6" x14ac:dyDescent="0.3">
-      <c r="A24" s="1">
+      <c r="A24" s="4">
         <f t="shared" si="5"/>
         <v>22</v>
       </c>
@@ -1542,13 +1582,15 @@
         <v>3076.15</v>
       </c>
       <c r="F24" s="2">
+        <f t="shared" si="7"/>
         <v>44813</v>
       </c>
       <c r="G24" s="2">
+        <f t="shared" si="8"/>
         <v>44826</v>
       </c>
       <c r="H24" s="1">
-        <f t="shared" si="7"/>
+        <f t="shared" si="9"/>
         <v>13</v>
       </c>
       <c r="I24" s="1">
@@ -1566,7 +1608,7 @@
       <c r="M24" s="1"/>
     </row>
     <row r="25" spans="1:13" ht="15.6" x14ac:dyDescent="0.3">
-      <c r="A25" s="1">
+      <c r="A25" s="4">
         <f>A24+1</f>
         <v>23</v>
       </c>
@@ -1586,13 +1628,15 @@
         <v>3050.3</v>
       </c>
       <c r="F25" s="2">
+        <f t="shared" si="7"/>
         <v>44813</v>
       </c>
       <c r="G25" s="2">
+        <f t="shared" si="8"/>
         <v>44827</v>
       </c>
       <c r="H25" s="1">
-        <f t="shared" si="7"/>
+        <f t="shared" si="9"/>
         <v>14</v>
       </c>
       <c r="I25" s="1">
@@ -1610,7 +1654,7 @@
       <c r="M25" s="1"/>
     </row>
     <row r="26" spans="1:13" ht="15.6" x14ac:dyDescent="0.3">
-      <c r="A26" s="1">
+      <c r="A26" s="4">
         <f t="shared" si="5"/>
         <v>24</v>
       </c>
@@ -1630,13 +1674,15 @@
         <v>3024.4500000000003</v>
       </c>
       <c r="F26" s="2">
+        <f t="shared" si="7"/>
         <v>44813</v>
       </c>
       <c r="G26" s="2">
+        <f t="shared" si="8"/>
         <v>44828</v>
       </c>
       <c r="H26" s="1">
-        <f t="shared" si="7"/>
+        <f t="shared" si="9"/>
         <v>15</v>
       </c>
       <c r="I26" s="1">
@@ -1654,7 +1700,7 @@
       <c r="M26" s="1"/>
     </row>
     <row r="27" spans="1:13" ht="15.6" x14ac:dyDescent="0.3">
-      <c r="A27" s="1">
+      <c r="A27" s="4">
         <f t="shared" si="5"/>
         <v>25</v>
       </c>
@@ -1674,13 +1720,15 @@
         <v>2998.6000000000004</v>
       </c>
       <c r="F27" s="2">
+        <f t="shared" si="7"/>
         <v>44813</v>
       </c>
       <c r="G27" s="2">
+        <f t="shared" si="8"/>
         <v>44829</v>
       </c>
       <c r="H27" s="1">
-        <f t="shared" si="7"/>
+        <f t="shared" si="9"/>
         <v>16</v>
       </c>
       <c r="I27" s="1">
@@ -1698,7 +1746,7 @@
       <c r="M27" s="1"/>
     </row>
     <row r="28" spans="1:13" ht="15.6" x14ac:dyDescent="0.3">
-      <c r="A28" s="1">
+      <c r="A28" s="4">
         <f t="shared" si="5"/>
         <v>26</v>
       </c>
@@ -1718,13 +1766,15 @@
         <v>2972.75</v>
       </c>
       <c r="F28" s="2">
+        <f t="shared" si="7"/>
         <v>44813</v>
       </c>
       <c r="G28" s="2">
+        <f t="shared" si="8"/>
         <v>44830</v>
       </c>
       <c r="H28" s="1">
-        <f t="shared" si="7"/>
+        <f t="shared" si="9"/>
         <v>17</v>
       </c>
       <c r="I28" s="1">
@@ -1742,7 +1792,7 @@
       <c r="M28" s="1"/>
     </row>
     <row r="29" spans="1:13" ht="15.6" x14ac:dyDescent="0.3">
-      <c r="A29" s="1">
+      <c r="A29" s="4">
         <f t="shared" si="5"/>
         <v>27</v>
       </c>
@@ -1762,13 +1812,15 @@
         <v>2946.9</v>
       </c>
       <c r="F29" s="2">
+        <f t="shared" si="7"/>
         <v>44813</v>
       </c>
       <c r="G29" s="2">
+        <f t="shared" si="8"/>
         <v>44831</v>
       </c>
       <c r="H29" s="1">
-        <f t="shared" si="7"/>
+        <f t="shared" si="9"/>
         <v>18</v>
       </c>
       <c r="I29" s="1">
@@ -1786,7 +1838,7 @@
       <c r="M29" s="1"/>
     </row>
     <row r="30" spans="1:13" ht="15.6" x14ac:dyDescent="0.3">
-      <c r="A30" s="1">
+      <c r="A30" s="4">
         <f t="shared" si="5"/>
         <v>28</v>
       </c>
@@ -1806,13 +1858,15 @@
         <v>2921.05</v>
       </c>
       <c r="F30" s="2">
+        <f t="shared" si="7"/>
         <v>44813</v>
       </c>
       <c r="G30" s="2">
+        <f t="shared" si="8"/>
         <v>44832</v>
       </c>
       <c r="H30" s="1">
-        <f t="shared" si="7"/>
+        <f t="shared" si="9"/>
         <v>19</v>
       </c>
       <c r="I30" s="1">
@@ -1830,7 +1884,7 @@
       <c r="M30" s="1"/>
     </row>
     <row r="31" spans="1:13" ht="15.6" x14ac:dyDescent="0.3">
-      <c r="A31" s="1">
+      <c r="A31" s="4">
         <f t="shared" si="5"/>
         <v>29</v>
       </c>
@@ -1850,13 +1904,15 @@
         <v>2895.2000000000003</v>
       </c>
       <c r="F31" s="2">
+        <f t="shared" si="7"/>
         <v>44813</v>
       </c>
       <c r="G31" s="2">
+        <f t="shared" si="8"/>
         <v>44833</v>
       </c>
       <c r="H31" s="1">
-        <f t="shared" si="7"/>
+        <f t="shared" si="9"/>
         <v>20</v>
       </c>
       <c r="I31" s="1">
@@ -1874,7 +1930,7 @@
       <c r="M31" s="1"/>
     </row>
     <row r="32" spans="1:13" ht="15.6" x14ac:dyDescent="0.3">
-      <c r="A32" s="1">
+      <c r="A32" s="4">
         <f t="shared" si="5"/>
         <v>30</v>
       </c>
@@ -1894,13 +1950,15 @@
         <v>2869.3500000000004</v>
       </c>
       <c r="F32" s="2">
+        <f t="shared" si="7"/>
         <v>44813</v>
       </c>
       <c r="G32" s="2">
+        <f t="shared" si="8"/>
         <v>44834</v>
       </c>
       <c r="H32" s="1">
-        <f t="shared" si="7"/>
+        <f t="shared" si="9"/>
         <v>21</v>
       </c>
       <c r="I32" s="1">
@@ -1918,7 +1976,7 @@
       <c r="M32" s="1"/>
     </row>
     <row r="33" spans="1:13" ht="15.6" x14ac:dyDescent="0.3">
-      <c r="A33" s="1">
+      <c r="A33" s="4">
         <f t="shared" si="5"/>
         <v>31</v>
       </c>
@@ -1938,13 +1996,15 @@
         <v>2843.5</v>
       </c>
       <c r="F33" s="2">
+        <f t="shared" si="7"/>
         <v>44813</v>
       </c>
       <c r="G33" s="2">
+        <f t="shared" si="8"/>
         <v>44835</v>
       </c>
       <c r="H33" s="1">
-        <f t="shared" si="7"/>
+        <f t="shared" si="9"/>
         <v>22</v>
       </c>
       <c r="I33" s="1">
@@ -1962,7 +2022,7 @@
       <c r="M33" s="1"/>
     </row>
     <row r="34" spans="1:13" ht="15.6" x14ac:dyDescent="0.3">
-      <c r="A34" s="1">
+      <c r="A34" s="4">
         <f t="shared" si="5"/>
         <v>32</v>
       </c>
@@ -1982,13 +2042,15 @@
         <v>2817.65</v>
       </c>
       <c r="F34" s="2">
+        <f t="shared" si="7"/>
         <v>44813</v>
       </c>
       <c r="G34" s="2">
+        <f t="shared" si="8"/>
         <v>44836</v>
       </c>
       <c r="H34" s="1">
-        <f t="shared" si="7"/>
+        <f t="shared" si="9"/>
         <v>23</v>
       </c>
       <c r="I34" s="1">
@@ -2006,7 +2068,7 @@
       <c r="M34" s="1"/>
     </row>
     <row r="35" spans="1:13" ht="15.6" x14ac:dyDescent="0.3">
-      <c r="A35" s="1">
+      <c r="A35" s="4">
         <f t="shared" si="5"/>
         <v>33</v>
       </c>
@@ -2026,13 +2088,15 @@
         <v>1395.9</v>
       </c>
       <c r="F35" s="2">
+        <f t="shared" si="7"/>
         <v>44813</v>
       </c>
       <c r="G35" s="2">
+        <f t="shared" si="8"/>
         <v>44837</v>
       </c>
       <c r="H35" s="1">
-        <f t="shared" si="7"/>
+        <f t="shared" si="9"/>
         <v>24</v>
       </c>
       <c r="I35" s="1">
@@ -2050,7 +2114,7 @@
       <c r="M35" s="1"/>
     </row>
     <row r="36" spans="1:13" ht="15.6" x14ac:dyDescent="0.3">
-      <c r="A36" s="1">
+      <c r="A36" s="4">
         <f>A35+1</f>
         <v>34</v>
       </c>
@@ -2062,7 +2126,7 @@
         <v>53.5</v>
       </c>
       <c r="D36" s="1">
-        <f t="shared" ref="D36:D38" si="8">$D$34/2</f>
+        <f t="shared" ref="D36:D38" si="10">$D$34/2</f>
         <v>25.85</v>
       </c>
       <c r="E36" s="1">
@@ -2070,13 +2134,15 @@
         <v>1382.9750000000001</v>
       </c>
       <c r="F36" s="2">
+        <f t="shared" si="7"/>
         <v>44813</v>
       </c>
       <c r="G36" s="2">
+        <f t="shared" si="8"/>
         <v>44838</v>
       </c>
       <c r="H36" s="1">
-        <f t="shared" si="7"/>
+        <f t="shared" si="9"/>
         <v>25</v>
       </c>
       <c r="I36" s="1">
@@ -2094,7 +2160,7 @@
       <c r="M36" s="1"/>
     </row>
     <row r="37" spans="1:13" ht="15.6" x14ac:dyDescent="0.3">
-      <c r="A37" s="1">
+      <c r="A37" s="4">
         <f t="shared" si="5"/>
         <v>35</v>
       </c>
@@ -2106,7 +2172,7 @@
         <v>53</v>
       </c>
       <c r="D37" s="1">
-        <f t="shared" si="8"/>
+        <f t="shared" si="10"/>
         <v>25.85</v>
       </c>
       <c r="E37" s="1">
@@ -2114,13 +2180,15 @@
         <v>1370.0500000000002</v>
       </c>
       <c r="F37" s="2">
+        <f t="shared" si="7"/>
         <v>44813</v>
       </c>
       <c r="G37" s="2">
+        <f t="shared" si="8"/>
         <v>44839</v>
       </c>
       <c r="H37" s="1">
-        <f t="shared" si="7"/>
+        <f t="shared" si="9"/>
         <v>26</v>
       </c>
       <c r="I37" s="1">
@@ -2138,7 +2206,7 @@
       <c r="M37" s="1"/>
     </row>
     <row r="38" spans="1:13" ht="15.6" x14ac:dyDescent="0.3">
-      <c r="A38" s="1">
+      <c r="A38" s="4">
         <f t="shared" si="5"/>
         <v>36</v>
       </c>
@@ -2150,7 +2218,7 @@
         <v>52.5</v>
       </c>
       <c r="D38" s="1">
-        <f t="shared" si="8"/>
+        <f t="shared" si="10"/>
         <v>25.85</v>
       </c>
       <c r="E38" s="1">
@@ -2158,13 +2226,15 @@
         <v>1357.125</v>
       </c>
       <c r="F38" s="2">
+        <f t="shared" si="7"/>
         <v>44813</v>
       </c>
       <c r="G38" s="2">
+        <f t="shared" si="8"/>
         <v>44840</v>
       </c>
       <c r="H38" s="1">
-        <f t="shared" si="7"/>
+        <f t="shared" si="9"/>
         <v>27</v>
       </c>
       <c r="I38" s="1">

--- a/LR3/table_1_47.xlsx
+++ b/LR3/table_1_47.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\IT\IT_LR\LR3\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{1503F490-358A-4A21-BBA9-A01E1DE3EC32}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{D256C06A-794C-48DB-B1AF-942B4DF97EFA}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12720" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -38,12 +38,6 @@
     <t>№ квартиры</t>
   </si>
   <si>
-    <t>Фамилия квартиросъемщика</t>
-  </si>
-  <si>
-    <t>Абдельвахаб</t>
-  </si>
-  <si>
     <t>Алтынов</t>
   </si>
   <si>
@@ -143,9 +137,6 @@
     <t>Мохамед</t>
   </si>
   <si>
-    <t>Баницин</t>
-  </si>
-  <si>
     <t>Куропаткин 1</t>
   </si>
   <si>
@@ -161,18 +152,12 @@
     <t>Пени за 1 день</t>
   </si>
   <si>
-    <t>Общая сумма, руб</t>
-  </si>
-  <si>
     <t>Средняя площадь, кв.м.</t>
   </si>
   <si>
     <t>Максимальный срок просрочки, дней</t>
   </si>
   <si>
-    <t>Максимальная сумма просрочки, руб</t>
-  </si>
-  <si>
     <t>Площадь, кв.м.</t>
   </si>
   <si>
@@ -186,6 +171,21 @@
   </si>
   <si>
     <t>Штраф, руб.</t>
+  </si>
+  <si>
+    <t>Адельвахаб</t>
+  </si>
+  <si>
+    <t>Банницин</t>
+  </si>
+  <si>
+    <t>Фамилия квартиросъёмщика</t>
+  </si>
+  <si>
+    <t>Общая сумма, руб.</t>
+  </si>
+  <si>
+    <t>Максимальная сумма просрочки, руб.</t>
   </si>
 </sst>
 </file>
@@ -526,8 +526,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
   <dimension ref="A1:M46"/>
   <sheetViews>
-    <sheetView tabSelected="1" zoomScale="70" zoomScaleNormal="70" workbookViewId="0">
-      <selection activeCell="G35" sqref="G35"/>
+    <sheetView tabSelected="1" topLeftCell="C1" zoomScale="145" zoomScaleNormal="145" workbookViewId="0">
+      <selection activeCell="I3" sqref="I3"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
@@ -567,34 +567,34 @@
         <v>0</v>
       </c>
       <c r="B2" s="3" t="s">
-        <v>1</v>
+        <v>48</v>
       </c>
       <c r="C2" s="3" t="s">
-        <v>46</v>
+        <v>41</v>
       </c>
       <c r="D2" s="3" t="s">
-        <v>47</v>
+        <v>42</v>
       </c>
       <c r="E2" s="3" t="s">
-        <v>48</v>
+        <v>43</v>
       </c>
       <c r="F2" s="3" t="s">
+        <v>35</v>
+      </c>
+      <c r="G2" s="3" t="s">
+        <v>36</v>
+      </c>
+      <c r="H2" s="3" t="s">
+        <v>37</v>
+      </c>
+      <c r="I2" s="3" t="s">
         <v>38</v>
       </c>
-      <c r="G2" s="3" t="s">
-        <v>39</v>
-      </c>
-      <c r="H2" s="3" t="s">
-        <v>40</v>
-      </c>
-      <c r="I2" s="3" t="s">
-        <v>41</v>
-      </c>
       <c r="J2" s="3" t="s">
-        <v>50</v>
+        <v>45</v>
       </c>
       <c r="K2" s="3" t="s">
-        <v>49</v>
+        <v>44</v>
       </c>
       <c r="L2" s="1"/>
       <c r="M2" s="1"/>
@@ -604,7 +604,7 @@
         <v>1</v>
       </c>
       <c r="B3" s="1" t="s">
-        <v>2</v>
+        <v>46</v>
       </c>
       <c r="C3" s="1">
         <v>70</v>
@@ -647,7 +647,7 @@
         <v>2</v>
       </c>
       <c r="B4" s="1" t="s">
-        <v>3</v>
+        <v>1</v>
       </c>
       <c r="C4" s="1">
         <f>C3-0.5</f>
@@ -693,7 +693,7 @@
         <v>3</v>
       </c>
       <c r="B5" s="1" t="s">
-        <v>4</v>
+        <v>2</v>
       </c>
       <c r="C5" s="1">
         <f t="shared" ref="C5:C38" si="6">C4-0.5</f>
@@ -739,7 +739,7 @@
         <v>4</v>
       </c>
       <c r="B6" s="1" t="s">
-        <v>5</v>
+        <v>3</v>
       </c>
       <c r="C6" s="1">
         <f t="shared" si="6"/>
@@ -785,7 +785,7 @@
         <v>5</v>
       </c>
       <c r="B7" s="1" t="s">
-        <v>6</v>
+        <v>4</v>
       </c>
       <c r="C7" s="1">
         <f t="shared" si="6"/>
@@ -831,7 +831,7 @@
         <v>6</v>
       </c>
       <c r="B8" s="1" t="s">
-        <v>7</v>
+        <v>5</v>
       </c>
       <c r="C8" s="1">
         <f t="shared" si="6"/>
@@ -877,7 +877,7 @@
         <v>7</v>
       </c>
       <c r="B9" s="1" t="s">
-        <v>8</v>
+        <v>6</v>
       </c>
       <c r="C9" s="1">
         <f t="shared" si="6"/>
@@ -923,7 +923,7 @@
         <v>8</v>
       </c>
       <c r="B10" s="1" t="s">
-        <v>9</v>
+        <v>7</v>
       </c>
       <c r="C10" s="1">
         <f t="shared" si="6"/>
@@ -969,7 +969,7 @@
         <v>9</v>
       </c>
       <c r="B11" s="1" t="s">
-        <v>10</v>
+        <v>8</v>
       </c>
       <c r="C11" s="1">
         <f t="shared" si="6"/>
@@ -1015,7 +1015,7 @@
         <v>10</v>
       </c>
       <c r="B12" s="1" t="s">
-        <v>11</v>
+        <v>9</v>
       </c>
       <c r="C12" s="1">
         <f t="shared" si="6"/>
@@ -1061,7 +1061,7 @@
         <v>11</v>
       </c>
       <c r="B13" s="1" t="s">
-        <v>12</v>
+        <v>10</v>
       </c>
       <c r="C13" s="1">
         <f t="shared" si="6"/>
@@ -1107,7 +1107,7 @@
         <v>12</v>
       </c>
       <c r="B14" s="1" t="s">
-        <v>14</v>
+        <v>12</v>
       </c>
       <c r="C14" s="1">
         <f t="shared" si="6"/>
@@ -1153,7 +1153,7 @@
         <v>13</v>
       </c>
       <c r="B15" s="1" t="s">
-        <v>15</v>
+        <v>13</v>
       </c>
       <c r="C15" s="1">
         <f t="shared" si="6"/>
@@ -1199,7 +1199,7 @@
         <v>14</v>
       </c>
       <c r="B16" s="1" t="s">
-        <v>16</v>
+        <v>14</v>
       </c>
       <c r="C16" s="1">
         <f t="shared" si="6"/>
@@ -1245,7 +1245,7 @@
         <v>15</v>
       </c>
       <c r="B17" s="1" t="s">
-        <v>17</v>
+        <v>15</v>
       </c>
       <c r="C17" s="1">
         <f t="shared" si="6"/>
@@ -1291,7 +1291,7 @@
         <v>16</v>
       </c>
       <c r="B18" s="1" t="s">
-        <v>18</v>
+        <v>16</v>
       </c>
       <c r="C18" s="1">
         <f t="shared" si="6"/>
@@ -1337,7 +1337,7 @@
         <v>17</v>
       </c>
       <c r="B19" s="1" t="s">
-        <v>19</v>
+        <v>17</v>
       </c>
       <c r="C19" s="1">
         <f t="shared" si="6"/>
@@ -1383,7 +1383,7 @@
         <v>18</v>
       </c>
       <c r="B20" s="1" t="s">
-        <v>21</v>
+        <v>19</v>
       </c>
       <c r="C20" s="1">
         <f t="shared" si="6"/>
@@ -1429,7 +1429,7 @@
         <v>19</v>
       </c>
       <c r="B21" s="1" t="s">
-        <v>20</v>
+        <v>18</v>
       </c>
       <c r="C21" s="1">
         <f t="shared" si="6"/>
@@ -1475,7 +1475,7 @@
         <v>20</v>
       </c>
       <c r="B22" s="1" t="s">
-        <v>22</v>
+        <v>20</v>
       </c>
       <c r="C22" s="1">
         <f t="shared" si="6"/>
@@ -1521,7 +1521,7 @@
         <v>21</v>
       </c>
       <c r="B23" s="1" t="s">
-        <v>23</v>
+        <v>21</v>
       </c>
       <c r="C23" s="1">
         <f t="shared" si="6"/>
@@ -1567,7 +1567,7 @@
         <v>22</v>
       </c>
       <c r="B24" s="1" t="s">
-        <v>24</v>
+        <v>22</v>
       </c>
       <c r="C24" s="1">
         <f t="shared" si="6"/>
@@ -1613,7 +1613,7 @@
         <v>23</v>
       </c>
       <c r="B25" s="1" t="s">
-        <v>25</v>
+        <v>23</v>
       </c>
       <c r="C25" s="1">
         <f t="shared" si="6"/>
@@ -1659,7 +1659,7 @@
         <v>24</v>
       </c>
       <c r="B26" s="1" t="s">
-        <v>26</v>
+        <v>24</v>
       </c>
       <c r="C26" s="1">
         <f t="shared" si="6"/>
@@ -1705,7 +1705,7 @@
         <v>25</v>
       </c>
       <c r="B27" s="1" t="s">
-        <v>27</v>
+        <v>25</v>
       </c>
       <c r="C27" s="1">
         <f t="shared" si="6"/>
@@ -1751,7 +1751,7 @@
         <v>26</v>
       </c>
       <c r="B28" s="1" t="s">
-        <v>28</v>
+        <v>26</v>
       </c>
       <c r="C28" s="1">
         <f t="shared" si="6"/>
@@ -1797,7 +1797,7 @@
         <v>27</v>
       </c>
       <c r="B29" s="1" t="s">
-        <v>29</v>
+        <v>27</v>
       </c>
       <c r="C29" s="1">
         <f t="shared" si="6"/>
@@ -1843,7 +1843,7 @@
         <v>28</v>
       </c>
       <c r="B30" s="1" t="s">
-        <v>30</v>
+        <v>28</v>
       </c>
       <c r="C30" s="1">
         <f t="shared" si="6"/>
@@ -1889,7 +1889,7 @@
         <v>29</v>
       </c>
       <c r="B31" s="1" t="s">
-        <v>31</v>
+        <v>29</v>
       </c>
       <c r="C31" s="1">
         <f t="shared" si="6"/>
@@ -1935,7 +1935,7 @@
         <v>30</v>
       </c>
       <c r="B32" s="1" t="s">
-        <v>32</v>
+        <v>30</v>
       </c>
       <c r="C32" s="1">
         <f t="shared" si="6"/>
@@ -1981,7 +1981,7 @@
         <v>31</v>
       </c>
       <c r="B33" s="1" t="s">
-        <v>33</v>
+        <v>31</v>
       </c>
       <c r="C33" s="1">
         <f t="shared" si="6"/>
@@ -2027,7 +2027,7 @@
         <v>32</v>
       </c>
       <c r="B34" s="1" t="s">
-        <v>34</v>
+        <v>32</v>
       </c>
       <c r="C34" s="1">
         <f t="shared" si="6"/>
@@ -2073,7 +2073,7 @@
         <v>33</v>
       </c>
       <c r="B35" s="1" t="s">
-        <v>13</v>
+        <v>11</v>
       </c>
       <c r="C35" s="1">
         <f t="shared" si="6"/>
@@ -2119,7 +2119,7 @@
         <v>34</v>
       </c>
       <c r="B36" s="1" t="s">
-        <v>35</v>
+        <v>33</v>
       </c>
       <c r="C36" s="1">
         <f t="shared" si="6"/>
@@ -2165,7 +2165,7 @@
         <v>35</v>
       </c>
       <c r="B37" s="1" t="s">
-        <v>36</v>
+        <v>47</v>
       </c>
       <c r="C37" s="1">
         <f t="shared" si="6"/>
@@ -2211,7 +2211,7 @@
         <v>36</v>
       </c>
       <c r="B38" s="1" t="s">
-        <v>37</v>
+        <v>34</v>
       </c>
       <c r="C38" s="1">
         <f t="shared" si="6"/>
@@ -2269,7 +2269,7 @@
     <row r="40" spans="1:13" ht="15.6" x14ac:dyDescent="0.3">
       <c r="A40" s="1"/>
       <c r="B40" s="4" t="s">
-        <v>42</v>
+        <v>49</v>
       </c>
       <c r="C40" s="1">
         <f>ROUNDUP(SUM(K3:K38),0)</f>
@@ -2289,7 +2289,7 @@
     <row r="41" spans="1:13" ht="15.6" x14ac:dyDescent="0.3">
       <c r="A41" s="1"/>
       <c r="B41" s="4" t="s">
-        <v>43</v>
+        <v>39</v>
       </c>
       <c r="C41" s="1">
         <f>AVERAGE(C3:C38)</f>
@@ -2309,7 +2309,7 @@
     <row r="42" spans="1:13" ht="15.6" x14ac:dyDescent="0.3">
       <c r="A42" s="1"/>
       <c r="B42" s="4" t="s">
-        <v>44</v>
+        <v>40</v>
       </c>
       <c r="C42" s="1">
         <f>MAX(H3:H38)</f>
@@ -2329,7 +2329,7 @@
     <row r="43" spans="1:13" ht="15.6" x14ac:dyDescent="0.3">
       <c r="A43" s="1"/>
       <c r="B43" s="4" t="s">
-        <v>45</v>
+        <v>50</v>
       </c>
       <c r="C43" s="1">
         <f>ROUNDUP(MAX(J3:J38),0)</f>

--- a/LR3/table_1_47.xlsx
+++ b/LR3/table_1_47.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\IT\IT_LR\LR3\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{D256C06A-794C-48DB-B1AF-942B4DF97EFA}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{87B0A4BC-FCA2-418C-BC6A-EEDE5647B70E}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12720" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -146,9 +146,6 @@
     <t>Дата оплаты</t>
   </si>
   <si>
-    <t>Просрочка</t>
-  </si>
-  <si>
     <t>Пени за 1 день</t>
   </si>
   <si>
@@ -176,9 +173,6 @@
     <t>Адельвахаб</t>
   </si>
   <si>
-    <t>Банницин</t>
-  </si>
-  <si>
     <t>Фамилия квартиросъёмщика</t>
   </si>
   <si>
@@ -186,6 +180,12 @@
   </si>
   <si>
     <t>Максимальная сумма просрочки, руб.</t>
+  </si>
+  <si>
+    <t>Просрочка, дней</t>
+  </si>
+  <si>
+    <t>Куропаткин 2</t>
   </si>
 </sst>
 </file>
@@ -526,8 +526,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
   <dimension ref="A1:M46"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="C1" zoomScale="145" zoomScaleNormal="145" workbookViewId="0">
-      <selection activeCell="I3" sqref="I3"/>
+    <sheetView tabSelected="1" topLeftCell="A21" zoomScaleNormal="100" workbookViewId="0">
+      <selection activeCell="B39" sqref="B39"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
@@ -539,7 +539,7 @@
     <col min="5" max="5" width="12.6640625" bestFit="1" customWidth="1"/>
     <col min="6" max="6" width="14" customWidth="1"/>
     <col min="7" max="7" width="12.77734375" customWidth="1"/>
-    <col min="8" max="8" width="12.109375" customWidth="1"/>
+    <col min="8" max="8" width="17" bestFit="1" customWidth="1"/>
     <col min="9" max="9" width="20.21875" bestFit="1" customWidth="1"/>
     <col min="10" max="10" width="12.6640625" bestFit="1" customWidth="1"/>
     <col min="11" max="11" width="11.6640625" bestFit="1" customWidth="1"/>
@@ -567,16 +567,16 @@
         <v>0</v>
       </c>
       <c r="B2" s="3" t="s">
-        <v>48</v>
+        <v>46</v>
       </c>
       <c r="C2" s="3" t="s">
+        <v>40</v>
+      </c>
+      <c r="D2" s="3" t="s">
         <v>41</v>
       </c>
-      <c r="D2" s="3" t="s">
+      <c r="E2" s="3" t="s">
         <v>42</v>
-      </c>
-      <c r="E2" s="3" t="s">
-        <v>43</v>
       </c>
       <c r="F2" s="3" t="s">
         <v>35</v>
@@ -585,16 +585,16 @@
         <v>36</v>
       </c>
       <c r="H2" s="3" t="s">
+        <v>49</v>
+      </c>
+      <c r="I2" s="3" t="s">
         <v>37</v>
       </c>
-      <c r="I2" s="3" t="s">
-        <v>38</v>
-      </c>
       <c r="J2" s="3" t="s">
-        <v>45</v>
+        <v>44</v>
       </c>
       <c r="K2" s="3" t="s">
-        <v>44</v>
+        <v>43</v>
       </c>
       <c r="L2" s="1"/>
       <c r="M2" s="1"/>
@@ -604,7 +604,7 @@
         <v>1</v>
       </c>
       <c r="B3" s="1" t="s">
-        <v>46</v>
+        <v>45</v>
       </c>
       <c r="C3" s="1">
         <v>70</v>
@@ -2165,7 +2165,7 @@
         <v>35</v>
       </c>
       <c r="B37" s="1" t="s">
-        <v>47</v>
+        <v>34</v>
       </c>
       <c r="C37" s="1">
         <f t="shared" si="6"/>
@@ -2211,7 +2211,7 @@
         <v>36</v>
       </c>
       <c r="B38" s="1" t="s">
-        <v>34</v>
+        <v>50</v>
       </c>
       <c r="C38" s="1">
         <f t="shared" si="6"/>
@@ -2269,7 +2269,7 @@
     <row r="40" spans="1:13" ht="15.6" x14ac:dyDescent="0.3">
       <c r="A40" s="1"/>
       <c r="B40" s="4" t="s">
-        <v>49</v>
+        <v>47</v>
       </c>
       <c r="C40" s="1">
         <f>ROUNDUP(SUM(K3:K38),0)</f>
@@ -2289,7 +2289,7 @@
     <row r="41" spans="1:13" ht="15.6" x14ac:dyDescent="0.3">
       <c r="A41" s="1"/>
       <c r="B41" s="4" t="s">
-        <v>39</v>
+        <v>38</v>
       </c>
       <c r="C41" s="1">
         <f>AVERAGE(C3:C38)</f>
@@ -2309,7 +2309,7 @@
     <row r="42" spans="1:13" ht="15.6" x14ac:dyDescent="0.3">
       <c r="A42" s="1"/>
       <c r="B42" s="4" t="s">
-        <v>40</v>
+        <v>39</v>
       </c>
       <c r="C42" s="1">
         <f>MAX(H3:H38)</f>
@@ -2329,7 +2329,7 @@
     <row r="43" spans="1:13" ht="15.6" x14ac:dyDescent="0.3">
       <c r="A43" s="1"/>
       <c r="B43" s="4" t="s">
-        <v>50</v>
+        <v>48</v>
       </c>
       <c r="C43" s="1">
         <f>ROUNDUP(MAX(J3:J38),0)</f>

--- a/LR3/table_1_47.xlsx
+++ b/LR3/table_1_47.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\IT\IT_LR\LR3\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{87B0A4BC-FCA2-418C-BC6A-EEDE5647B70E}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{FE60A5CA-2C77-4DEA-BE53-6A4C11CAE7C5}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12720" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -185,7 +185,7 @@
     <t>Просрочка, дней</t>
   </si>
   <si>
-    <t>Куропаткин 2</t>
+    <t>Банницин</t>
   </si>
 </sst>
 </file>
@@ -527,7 +527,7 @@
   <dimension ref="A1:M46"/>
   <sheetViews>
     <sheetView tabSelected="1" topLeftCell="A21" zoomScaleNormal="100" workbookViewId="0">
-      <selection activeCell="B39" sqref="B39"/>
+      <selection activeCell="B35" sqref="B35"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
@@ -2165,7 +2165,7 @@
         <v>35</v>
       </c>
       <c r="B37" s="1" t="s">
-        <v>34</v>
+        <v>50</v>
       </c>
       <c r="C37" s="1">
         <f t="shared" si="6"/>
@@ -2211,7 +2211,7 @@
         <v>36</v>
       </c>
       <c r="B38" s="1" t="s">
-        <v>50</v>
+        <v>34</v>
       </c>
       <c r="C38" s="1">
         <f t="shared" si="6"/>

--- a/LR3/table_1_47.xlsx
+++ b/LR3/table_1_47.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\IT\IT_LR\LR3\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{FE60A5CA-2C77-4DEA-BE53-6A4C11CAE7C5}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{1E3F9977-89E5-4EEB-BFE1-AE7309135258}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12720" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -527,7 +527,7 @@
   <dimension ref="A1:M46"/>
   <sheetViews>
     <sheetView tabSelected="1" topLeftCell="A21" zoomScaleNormal="100" workbookViewId="0">
-      <selection activeCell="B35" sqref="B35"/>
+      <selection activeCell="D43" sqref="D43"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
@@ -2272,8 +2272,8 @@
         <v>47</v>
       </c>
       <c r="C40" s="1">
-        <f>ROUNDUP(SUM(K3:K38),0)</f>
-        <v>112273</v>
+        <f>ROUND(SUM(K3:K38),0)</f>
+        <v>112272</v>
       </c>
       <c r="D40" s="1"/>
       <c r="E40" s="1"/>
@@ -2332,7 +2332,7 @@
         <v>48</v>
       </c>
       <c r="C43" s="1">
-        <f>ROUNDUP(MAX(J3:J38),0)</f>
+        <f>MAX(J3:J38)</f>
         <v>270</v>
       </c>
       <c r="D43" s="1"/>

--- a/LR3/table_1_47.xlsx
+++ b/LR3/table_1_47.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\IT\IT_LR\LR3\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{1E3F9977-89E5-4EEB-BFE1-AE7309135258}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{E3612C37-6DF9-4888-A289-1392089AF098}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12720" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -146,9 +146,6 @@
     <t>Дата оплаты</t>
   </si>
   <si>
-    <t>Пени за 1 день</t>
-  </si>
-  <si>
     <t>Средняя площадь, кв.м.</t>
   </si>
   <si>
@@ -186,6 +183,9 @@
   </si>
   <si>
     <t>Банницин</t>
+  </si>
+  <si>
+    <t>Пени за 1 день, руб.</t>
   </si>
 </sst>
 </file>
@@ -526,8 +526,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
   <dimension ref="A1:M46"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A21" zoomScaleNormal="100" workbookViewId="0">
-      <selection activeCell="D43" sqref="D43"/>
+    <sheetView tabSelected="1" zoomScaleNormal="100" workbookViewId="0">
+      <selection activeCell="I3" sqref="I3"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
@@ -567,16 +567,16 @@
         <v>0</v>
       </c>
       <c r="B2" s="3" t="s">
-        <v>46</v>
+        <v>45</v>
       </c>
       <c r="C2" s="3" t="s">
+        <v>39</v>
+      </c>
+      <c r="D2" s="3" t="s">
         <v>40</v>
       </c>
-      <c r="D2" s="3" t="s">
+      <c r="E2" s="3" t="s">
         <v>41</v>
-      </c>
-      <c r="E2" s="3" t="s">
-        <v>42</v>
       </c>
       <c r="F2" s="3" t="s">
         <v>35</v>
@@ -585,16 +585,16 @@
         <v>36</v>
       </c>
       <c r="H2" s="3" t="s">
-        <v>49</v>
+        <v>48</v>
       </c>
       <c r="I2" s="3" t="s">
-        <v>37</v>
+        <v>50</v>
       </c>
       <c r="J2" s="3" t="s">
-        <v>44</v>
+        <v>43</v>
       </c>
       <c r="K2" s="3" t="s">
-        <v>43</v>
+        <v>42</v>
       </c>
       <c r="L2" s="1"/>
       <c r="M2" s="1"/>
@@ -604,7 +604,7 @@
         <v>1</v>
       </c>
       <c r="B3" s="1" t="s">
-        <v>45</v>
+        <v>44</v>
       </c>
       <c r="C3" s="1">
         <v>70</v>
@@ -2165,7 +2165,7 @@
         <v>35</v>
       </c>
       <c r="B37" s="1" t="s">
-        <v>50</v>
+        <v>49</v>
       </c>
       <c r="C37" s="1">
         <f t="shared" si="6"/>
@@ -2269,7 +2269,7 @@
     <row r="40" spans="1:13" ht="15.6" x14ac:dyDescent="0.3">
       <c r="A40" s="1"/>
       <c r="B40" s="4" t="s">
-        <v>47</v>
+        <v>46</v>
       </c>
       <c r="C40" s="1">
         <f>ROUND(SUM(K3:K38),0)</f>
@@ -2289,7 +2289,7 @@
     <row r="41" spans="1:13" ht="15.6" x14ac:dyDescent="0.3">
       <c r="A41" s="1"/>
       <c r="B41" s="4" t="s">
-        <v>38</v>
+        <v>37</v>
       </c>
       <c r="C41" s="1">
         <f>AVERAGE(C3:C38)</f>
@@ -2309,7 +2309,7 @@
     <row r="42" spans="1:13" ht="15.6" x14ac:dyDescent="0.3">
       <c r="A42" s="1"/>
       <c r="B42" s="4" t="s">
-        <v>39</v>
+        <v>38</v>
       </c>
       <c r="C42" s="1">
         <f>MAX(H3:H38)</f>
@@ -2329,7 +2329,7 @@
     <row r="43" spans="1:13" ht="15.6" x14ac:dyDescent="0.3">
       <c r="A43" s="1"/>
       <c r="B43" s="4" t="s">
-        <v>48</v>
+        <v>47</v>
       </c>
       <c r="C43" s="1">
         <f>MAX(J3:J38)</f>

--- a/LR3/table_1_47.xlsx
+++ b/LR3/table_1_47.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\IT\IT_LR\LR3\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{E3612C37-6DF9-4888-A289-1392089AF098}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{A16BF262-E3F4-48F0-9051-E347F02998F5}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12720" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -35,9 +35,6 @@
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
 <sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="51" uniqueCount="51">
   <si>
-    <t>№ квартиры</t>
-  </si>
-  <si>
     <t>Алтынов</t>
   </si>
   <si>
@@ -186,6 +183,9 @@
   </si>
   <si>
     <t>Пени за 1 день, руб.</t>
+  </si>
+  <si>
+    <t xml:space="preserve">№ квартиры </t>
   </si>
 </sst>
 </file>
@@ -527,7 +527,7 @@
   <dimension ref="A1:M46"/>
   <sheetViews>
     <sheetView tabSelected="1" zoomScaleNormal="100" workbookViewId="0">
-      <selection activeCell="I3" sqref="I3"/>
+      <selection activeCell="A3" sqref="A3"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
@@ -564,37 +564,37 @@
     </row>
     <row r="2" spans="1:13" ht="15.6" x14ac:dyDescent="0.3">
       <c r="A2" s="3" t="s">
-        <v>0</v>
+        <v>50</v>
       </c>
       <c r="B2" s="3" t="s">
-        <v>45</v>
+        <v>44</v>
       </c>
       <c r="C2" s="3" t="s">
+        <v>38</v>
+      </c>
+      <c r="D2" s="3" t="s">
         <v>39</v>
       </c>
-      <c r="D2" s="3" t="s">
+      <c r="E2" s="3" t="s">
         <v>40</v>
       </c>
-      <c r="E2" s="3" t="s">
+      <c r="F2" s="3" t="s">
+        <v>34</v>
+      </c>
+      <c r="G2" s="3" t="s">
+        <v>35</v>
+      </c>
+      <c r="H2" s="3" t="s">
+        <v>47</v>
+      </c>
+      <c r="I2" s="3" t="s">
+        <v>49</v>
+      </c>
+      <c r="J2" s="3" t="s">
+        <v>42</v>
+      </c>
+      <c r="K2" s="3" t="s">
         <v>41</v>
-      </c>
-      <c r="F2" s="3" t="s">
-        <v>35</v>
-      </c>
-      <c r="G2" s="3" t="s">
-        <v>36</v>
-      </c>
-      <c r="H2" s="3" t="s">
-        <v>48</v>
-      </c>
-      <c r="I2" s="3" t="s">
-        <v>50</v>
-      </c>
-      <c r="J2" s="3" t="s">
-        <v>43</v>
-      </c>
-      <c r="K2" s="3" t="s">
-        <v>42</v>
       </c>
       <c r="L2" s="1"/>
       <c r="M2" s="1"/>
@@ -604,7 +604,7 @@
         <v>1</v>
       </c>
       <c r="B3" s="1" t="s">
-        <v>44</v>
+        <v>43</v>
       </c>
       <c r="C3" s="1">
         <v>70</v>
@@ -647,7 +647,7 @@
         <v>2</v>
       </c>
       <c r="B4" s="1" t="s">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="C4" s="1">
         <f>C3-0.5</f>
@@ -693,7 +693,7 @@
         <v>3</v>
       </c>
       <c r="B5" s="1" t="s">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="C5" s="1">
         <f t="shared" ref="C5:C38" si="6">C4-0.5</f>
@@ -739,7 +739,7 @@
         <v>4</v>
       </c>
       <c r="B6" s="1" t="s">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="C6" s="1">
         <f t="shared" si="6"/>
@@ -785,7 +785,7 @@
         <v>5</v>
       </c>
       <c r="B7" s="1" t="s">
-        <v>4</v>
+        <v>3</v>
       </c>
       <c r="C7" s="1">
         <f t="shared" si="6"/>
@@ -831,7 +831,7 @@
         <v>6</v>
       </c>
       <c r="B8" s="1" t="s">
-        <v>5</v>
+        <v>4</v>
       </c>
       <c r="C8" s="1">
         <f t="shared" si="6"/>
@@ -877,7 +877,7 @@
         <v>7</v>
       </c>
       <c r="B9" s="1" t="s">
-        <v>6</v>
+        <v>5</v>
       </c>
       <c r="C9" s="1">
         <f t="shared" si="6"/>
@@ -923,7 +923,7 @@
         <v>8</v>
       </c>
       <c r="B10" s="1" t="s">
-        <v>7</v>
+        <v>6</v>
       </c>
       <c r="C10" s="1">
         <f t="shared" si="6"/>
@@ -969,7 +969,7 @@
         <v>9</v>
       </c>
       <c r="B11" s="1" t="s">
-        <v>8</v>
+        <v>7</v>
       </c>
       <c r="C11" s="1">
         <f t="shared" si="6"/>
@@ -1015,7 +1015,7 @@
         <v>10</v>
       </c>
       <c r="B12" s="1" t="s">
-        <v>9</v>
+        <v>8</v>
       </c>
       <c r="C12" s="1">
         <f t="shared" si="6"/>
@@ -1061,7 +1061,7 @@
         <v>11</v>
       </c>
       <c r="B13" s="1" t="s">
-        <v>10</v>
+        <v>9</v>
       </c>
       <c r="C13" s="1">
         <f t="shared" si="6"/>
@@ -1107,7 +1107,7 @@
         <v>12</v>
       </c>
       <c r="B14" s="1" t="s">
-        <v>12</v>
+        <v>11</v>
       </c>
       <c r="C14" s="1">
         <f t="shared" si="6"/>
@@ -1153,7 +1153,7 @@
         <v>13</v>
       </c>
       <c r="B15" s="1" t="s">
-        <v>13</v>
+        <v>12</v>
       </c>
       <c r="C15" s="1">
         <f t="shared" si="6"/>
@@ -1199,7 +1199,7 @@
         <v>14</v>
       </c>
       <c r="B16" s="1" t="s">
-        <v>14</v>
+        <v>13</v>
       </c>
       <c r="C16" s="1">
         <f t="shared" si="6"/>
@@ -1245,7 +1245,7 @@
         <v>15</v>
       </c>
       <c r="B17" s="1" t="s">
-        <v>15</v>
+        <v>14</v>
       </c>
       <c r="C17" s="1">
         <f t="shared" si="6"/>
@@ -1291,7 +1291,7 @@
         <v>16</v>
       </c>
       <c r="B18" s="1" t="s">
-        <v>16</v>
+        <v>15</v>
       </c>
       <c r="C18" s="1">
         <f t="shared" si="6"/>
@@ -1337,7 +1337,7 @@
         <v>17</v>
       </c>
       <c r="B19" s="1" t="s">
-        <v>17</v>
+        <v>16</v>
       </c>
       <c r="C19" s="1">
         <f t="shared" si="6"/>
@@ -1383,7 +1383,7 @@
         <v>18</v>
       </c>
       <c r="B20" s="1" t="s">
-        <v>19</v>
+        <v>18</v>
       </c>
       <c r="C20" s="1">
         <f t="shared" si="6"/>
@@ -1429,7 +1429,7 @@
         <v>19</v>
       </c>
       <c r="B21" s="1" t="s">
-        <v>18</v>
+        <v>17</v>
       </c>
       <c r="C21" s="1">
         <f t="shared" si="6"/>
@@ -1475,7 +1475,7 @@
         <v>20</v>
       </c>
       <c r="B22" s="1" t="s">
-        <v>20</v>
+        <v>19</v>
       </c>
       <c r="C22" s="1">
         <f t="shared" si="6"/>
@@ -1521,7 +1521,7 @@
         <v>21</v>
       </c>
       <c r="B23" s="1" t="s">
-        <v>21</v>
+        <v>20</v>
       </c>
       <c r="C23" s="1">
         <f t="shared" si="6"/>
@@ -1567,7 +1567,7 @@
         <v>22</v>
       </c>
       <c r="B24" s="1" t="s">
-        <v>22</v>
+        <v>21</v>
       </c>
       <c r="C24" s="1">
         <f t="shared" si="6"/>
@@ -1613,7 +1613,7 @@
         <v>23</v>
       </c>
       <c r="B25" s="1" t="s">
-        <v>23</v>
+        <v>22</v>
       </c>
       <c r="C25" s="1">
         <f t="shared" si="6"/>
@@ -1659,7 +1659,7 @@
         <v>24</v>
       </c>
       <c r="B26" s="1" t="s">
-        <v>24</v>
+        <v>23</v>
       </c>
       <c r="C26" s="1">
         <f t="shared" si="6"/>
@@ -1705,7 +1705,7 @@
         <v>25</v>
       </c>
       <c r="B27" s="1" t="s">
-        <v>25</v>
+        <v>24</v>
       </c>
       <c r="C27" s="1">
         <f t="shared" si="6"/>
@@ -1751,7 +1751,7 @@
         <v>26</v>
       </c>
       <c r="B28" s="1" t="s">
-        <v>26</v>
+        <v>25</v>
       </c>
       <c r="C28" s="1">
         <f t="shared" si="6"/>
@@ -1797,7 +1797,7 @@
         <v>27</v>
       </c>
       <c r="B29" s="1" t="s">
-        <v>27</v>
+        <v>26</v>
       </c>
       <c r="C29" s="1">
         <f t="shared" si="6"/>
@@ -1843,7 +1843,7 @@
         <v>28</v>
       </c>
       <c r="B30" s="1" t="s">
-        <v>28</v>
+        <v>27</v>
       </c>
       <c r="C30" s="1">
         <f t="shared" si="6"/>
@@ -1889,7 +1889,7 @@
         <v>29</v>
       </c>
       <c r="B31" s="1" t="s">
-        <v>29</v>
+        <v>28</v>
       </c>
       <c r="C31" s="1">
         <f t="shared" si="6"/>
@@ -1935,7 +1935,7 @@
         <v>30</v>
       </c>
       <c r="B32" s="1" t="s">
-        <v>30</v>
+        <v>29</v>
       </c>
       <c r="C32" s="1">
         <f t="shared" si="6"/>
@@ -1981,7 +1981,7 @@
         <v>31</v>
       </c>
       <c r="B33" s="1" t="s">
-        <v>31</v>
+        <v>30</v>
       </c>
       <c r="C33" s="1">
         <f t="shared" si="6"/>
@@ -2027,7 +2027,7 @@
         <v>32</v>
       </c>
       <c r="B34" s="1" t="s">
-        <v>32</v>
+        <v>31</v>
       </c>
       <c r="C34" s="1">
         <f t="shared" si="6"/>
@@ -2073,7 +2073,7 @@
         <v>33</v>
       </c>
       <c r="B35" s="1" t="s">
-        <v>11</v>
+        <v>10</v>
       </c>
       <c r="C35" s="1">
         <f t="shared" si="6"/>
@@ -2119,7 +2119,7 @@
         <v>34</v>
       </c>
       <c r="B36" s="1" t="s">
-        <v>33</v>
+        <v>32</v>
       </c>
       <c r="C36" s="1">
         <f t="shared" si="6"/>
@@ -2165,7 +2165,7 @@
         <v>35</v>
       </c>
       <c r="B37" s="1" t="s">
-        <v>49</v>
+        <v>48</v>
       </c>
       <c r="C37" s="1">
         <f t="shared" si="6"/>
@@ -2211,7 +2211,7 @@
         <v>36</v>
       </c>
       <c r="B38" s="1" t="s">
-        <v>34</v>
+        <v>33</v>
       </c>
       <c r="C38" s="1">
         <f t="shared" si="6"/>
@@ -2269,7 +2269,7 @@
     <row r="40" spans="1:13" ht="15.6" x14ac:dyDescent="0.3">
       <c r="A40" s="1"/>
       <c r="B40" s="4" t="s">
-        <v>46</v>
+        <v>45</v>
       </c>
       <c r="C40" s="1">
         <f>ROUND(SUM(K3:K38),0)</f>
@@ -2289,7 +2289,7 @@
     <row r="41" spans="1:13" ht="15.6" x14ac:dyDescent="0.3">
       <c r="A41" s="1"/>
       <c r="B41" s="4" t="s">
-        <v>37</v>
+        <v>36</v>
       </c>
       <c r="C41" s="1">
         <f>AVERAGE(C3:C38)</f>
@@ -2309,7 +2309,7 @@
     <row r="42" spans="1:13" ht="15.6" x14ac:dyDescent="0.3">
       <c r="A42" s="1"/>
       <c r="B42" s="4" t="s">
-        <v>38</v>
+        <v>37</v>
       </c>
       <c r="C42" s="1">
         <f>MAX(H3:H38)</f>
@@ -2329,7 +2329,7 @@
     <row r="43" spans="1:13" ht="15.6" x14ac:dyDescent="0.3">
       <c r="A43" s="1"/>
       <c r="B43" s="4" t="s">
-        <v>47</v>
+        <v>46</v>
       </c>
       <c r="C43" s="1">
         <f>MAX(J3:J38)</f>

--- a/LR3/table_1_47.xlsx
+++ b/LR3/table_1_47.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\IT\IT_LR\LR3\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{A16BF262-E3F4-48F0-9051-E347F02998F5}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{A13EEC9C-DA95-4756-8840-6FE3F2FC83E8}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12720" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -182,10 +182,10 @@
     <t>Банницин</t>
   </si>
   <si>
-    <t>Пени за 1 день, руб.</t>
-  </si>
-  <si>
     <t xml:space="preserve">№ квартиры </t>
+  </si>
+  <si>
+    <t>Пени за 1 день</t>
   </si>
 </sst>
 </file>
@@ -527,7 +527,7 @@
   <dimension ref="A1:M46"/>
   <sheetViews>
     <sheetView tabSelected="1" zoomScaleNormal="100" workbookViewId="0">
-      <selection activeCell="A3" sqref="A3"/>
+      <selection activeCell="I3" sqref="I3"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
@@ -564,7 +564,7 @@
     </row>
     <row r="2" spans="1:13" ht="15.6" x14ac:dyDescent="0.3">
       <c r="A2" s="3" t="s">
-        <v>50</v>
+        <v>49</v>
       </c>
       <c r="B2" s="3" t="s">
         <v>44</v>
@@ -588,7 +588,7 @@
         <v>47</v>
       </c>
       <c r="I2" s="3" t="s">
-        <v>49</v>
+        <v>50</v>
       </c>
       <c r="J2" s="3" t="s">
         <v>42</v>

--- a/LR3/table_1_47.xlsx
+++ b/LR3/table_1_47.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\IT\IT_LR\LR3\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{A13EEC9C-DA95-4756-8840-6FE3F2FC83E8}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{12E5C273-B847-4453-82B3-ECB35C44E560}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12720" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -182,10 +182,10 @@
     <t>Банницин</t>
   </si>
   <si>
-    <t xml:space="preserve">№ квартиры </t>
-  </si>
-  <si>
-    <t>Пени за 1 день</t>
+    <t>№ квартиры</t>
+  </si>
+  <si>
+    <t>??????????????</t>
   </si>
 </sst>
 </file>
@@ -527,7 +527,7 @@
   <dimension ref="A1:M46"/>
   <sheetViews>
     <sheetView tabSelected="1" zoomScaleNormal="100" workbookViewId="0">
-      <selection activeCell="I3" sqref="I3"/>
+      <selection activeCell="M2" sqref="M2"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
@@ -1747,7 +1747,7 @@
     </row>
     <row r="28" spans="1:13" ht="15.6" x14ac:dyDescent="0.3">
       <c r="A28" s="4">
-        <f t="shared" si="5"/>
+        <f>A27+1</f>
         <v>26</v>
       </c>
       <c r="B28" s="1" t="s">

--- a/LR3/table_1_47.xlsx
+++ b/LR3/table_1_47.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\IT\IT_LR\LR3\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{12E5C273-B847-4453-82B3-ECB35C44E560}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{94C31CF2-DEA3-4170-ADBA-F9342D2E5AF3}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12720" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -158,9 +158,6 @@
     <t>Сумма, руб.</t>
   </si>
   <si>
-    <t>Итого, руб.</t>
-  </si>
-  <si>
     <t>Штраф, руб.</t>
   </si>
   <si>
@@ -185,7 +182,10 @@
     <t>№ квартиры</t>
   </si>
   <si>
-    <t>??????????????</t>
+    <t>Пени за 1 день</t>
+  </si>
+  <si>
+    <t>Итого</t>
   </si>
 </sst>
 </file>
@@ -527,7 +527,7 @@
   <dimension ref="A1:M46"/>
   <sheetViews>
     <sheetView tabSelected="1" zoomScaleNormal="100" workbookViewId="0">
-      <selection activeCell="M2" sqref="M2"/>
+      <selection activeCell="K3" sqref="K3"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
@@ -564,10 +564,10 @@
     </row>
     <row r="2" spans="1:13" ht="15.6" x14ac:dyDescent="0.3">
       <c r="A2" s="3" t="s">
-        <v>49</v>
+        <v>48</v>
       </c>
       <c r="B2" s="3" t="s">
-        <v>44</v>
+        <v>43</v>
       </c>
       <c r="C2" s="3" t="s">
         <v>38</v>
@@ -585,16 +585,16 @@
         <v>35</v>
       </c>
       <c r="H2" s="3" t="s">
-        <v>47</v>
+        <v>46</v>
       </c>
       <c r="I2" s="3" t="s">
+        <v>49</v>
+      </c>
+      <c r="J2" s="3" t="s">
+        <v>41</v>
+      </c>
+      <c r="K2" s="3" t="s">
         <v>50</v>
-      </c>
-      <c r="J2" s="3" t="s">
-        <v>42</v>
-      </c>
-      <c r="K2" s="3" t="s">
-        <v>41</v>
       </c>
       <c r="L2" s="1"/>
       <c r="M2" s="1"/>
@@ -604,7 +604,7 @@
         <v>1</v>
       </c>
       <c r="B3" s="1" t="s">
-        <v>43</v>
+        <v>42</v>
       </c>
       <c r="C3" s="1">
         <v>70</v>
@@ -2165,7 +2165,7 @@
         <v>35</v>
       </c>
       <c r="B37" s="1" t="s">
-        <v>48</v>
+        <v>47</v>
       </c>
       <c r="C37" s="1">
         <f t="shared" si="6"/>
@@ -2269,7 +2269,7 @@
     <row r="40" spans="1:13" ht="15.6" x14ac:dyDescent="0.3">
       <c r="A40" s="1"/>
       <c r="B40" s="4" t="s">
-        <v>45</v>
+        <v>44</v>
       </c>
       <c r="C40" s="1">
         <f>ROUND(SUM(K3:K38),0)</f>
@@ -2329,7 +2329,7 @@
     <row r="43" spans="1:13" ht="15.6" x14ac:dyDescent="0.3">
       <c r="A43" s="1"/>
       <c r="B43" s="4" t="s">
-        <v>46</v>
+        <v>45</v>
       </c>
       <c r="C43" s="1">
         <f>MAX(J3:J38)</f>

--- a/LR3/table_1_47.xlsx
+++ b/LR3/table_1_47.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\IT\IT_LR\LR3\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{94C31CF2-DEA3-4170-ADBA-F9342D2E5AF3}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{E0BBEB66-2B10-4936-B107-C68762DC2209}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12720" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -182,10 +182,10 @@
     <t>№ квартиры</t>
   </si>
   <si>
-    <t>Пени за 1 день</t>
-  </si>
-  <si>
     <t>Итого</t>
+  </si>
+  <si>
+    <t>Пени за 1 день, руб.</t>
   </si>
 </sst>
 </file>
@@ -527,7 +527,7 @@
   <dimension ref="A1:M46"/>
   <sheetViews>
     <sheetView tabSelected="1" zoomScaleNormal="100" workbookViewId="0">
-      <selection activeCell="K3" sqref="K3"/>
+      <selection activeCell="I2" sqref="I2"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
@@ -588,13 +588,13 @@
         <v>46</v>
       </c>
       <c r="I2" s="3" t="s">
-        <v>49</v>
+        <v>50</v>
       </c>
       <c r="J2" s="3" t="s">
         <v>41</v>
       </c>
       <c r="K2" s="3" t="s">
-        <v>50</v>
+        <v>49</v>
       </c>
       <c r="L2" s="1"/>
       <c r="M2" s="1"/>

--- a/LR3/table_1_47.xlsx
+++ b/LR3/table_1_47.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\IT\IT_LR\LR3\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{E0BBEB66-2B10-4936-B107-C68762DC2209}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{6821CC23-02C7-4175-AA44-357F9FC70626}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12720" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -182,10 +182,10 @@
     <t>№ квартиры</t>
   </si>
   <si>
-    <t>Итого</t>
-  </si>
-  <si>
-    <t>Пени за 1 день, руб.</t>
+    <t>Пени за 1 день</t>
+  </si>
+  <si>
+    <t>Итого, руб.</t>
   </si>
 </sst>
 </file>
@@ -527,7 +527,7 @@
   <dimension ref="A1:M46"/>
   <sheetViews>
     <sheetView tabSelected="1" zoomScaleNormal="100" workbookViewId="0">
-      <selection activeCell="I2" sqref="I2"/>
+      <selection activeCell="C41" sqref="C41"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
@@ -588,13 +588,13 @@
         <v>46</v>
       </c>
       <c r="I2" s="3" t="s">
-        <v>50</v>
+        <v>49</v>
       </c>
       <c r="J2" s="3" t="s">
         <v>41</v>
       </c>
       <c r="K2" s="3" t="s">
-        <v>49</v>
+        <v>50</v>
       </c>
       <c r="L2" s="1"/>
       <c r="M2" s="1"/>
@@ -2272,7 +2272,7 @@
         <v>44</v>
       </c>
       <c r="C40" s="1">
-        <f>ROUND(SUM(K3:K38),0)</f>
+        <f>ROUNDDOWN(SUM(K3:K38),0)</f>
         <v>112272</v>
       </c>
       <c r="D40" s="1"/>

--- a/LR3/table_1_47.xlsx
+++ b/LR3/table_1_47.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\IT\IT_LR\LR3\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{6821CC23-02C7-4175-AA44-357F9FC70626}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{A45C6597-F368-493E-8835-24497D597C9F}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12720" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -158,9 +158,6 @@
     <t>Сумма, руб.</t>
   </si>
   <si>
-    <t>Штраф, руб.</t>
-  </si>
-  <si>
     <t>Адельвахаб</t>
   </si>
   <si>
@@ -185,7 +182,10 @@
     <t>Пени за 1 день</t>
   </si>
   <si>
-    <t>Итого, руб.</t>
+    <t>Итого</t>
+  </si>
+  <si>
+    <t>Штраф</t>
   </si>
 </sst>
 </file>
@@ -527,7 +527,7 @@
   <dimension ref="A1:M46"/>
   <sheetViews>
     <sheetView tabSelected="1" zoomScaleNormal="100" workbookViewId="0">
-      <selection activeCell="C41" sqref="C41"/>
+      <selection activeCell="J3" sqref="J3"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
@@ -564,10 +564,10 @@
     </row>
     <row r="2" spans="1:13" ht="15.6" x14ac:dyDescent="0.3">
       <c r="A2" s="3" t="s">
-        <v>48</v>
+        <v>47</v>
       </c>
       <c r="B2" s="3" t="s">
-        <v>43</v>
+        <v>42</v>
       </c>
       <c r="C2" s="3" t="s">
         <v>38</v>
@@ -585,16 +585,16 @@
         <v>35</v>
       </c>
       <c r="H2" s="3" t="s">
-        <v>46</v>
+        <v>45</v>
       </c>
       <c r="I2" s="3" t="s">
+        <v>48</v>
+      </c>
+      <c r="J2" s="3" t="s">
+        <v>50</v>
+      </c>
+      <c r="K2" s="3" t="s">
         <v>49</v>
-      </c>
-      <c r="J2" s="3" t="s">
-        <v>41</v>
-      </c>
-      <c r="K2" s="3" t="s">
-        <v>50</v>
       </c>
       <c r="L2" s="1"/>
       <c r="M2" s="1"/>
@@ -604,7 +604,7 @@
         <v>1</v>
       </c>
       <c r="B3" s="1" t="s">
-        <v>42</v>
+        <v>41</v>
       </c>
       <c r="C3" s="1">
         <v>70</v>
@@ -2165,7 +2165,7 @@
         <v>35</v>
       </c>
       <c r="B37" s="1" t="s">
-        <v>47</v>
+        <v>46</v>
       </c>
       <c r="C37" s="1">
         <f t="shared" si="6"/>
@@ -2269,7 +2269,7 @@
     <row r="40" spans="1:13" ht="15.6" x14ac:dyDescent="0.3">
       <c r="A40" s="1"/>
       <c r="B40" s="4" t="s">
-        <v>44</v>
+        <v>43</v>
       </c>
       <c r="C40" s="1">
         <f>ROUNDDOWN(SUM(K3:K38),0)</f>
@@ -2329,7 +2329,7 @@
     <row r="43" spans="1:13" ht="15.6" x14ac:dyDescent="0.3">
       <c r="A43" s="1"/>
       <c r="B43" s="4" t="s">
-        <v>45</v>
+        <v>44</v>
       </c>
       <c r="C43" s="1">
         <f>MAX(J3:J38)</f>

--- a/LR3/table_1_47.xlsx
+++ b/LR3/table_1_47.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\IT\IT_LR\LR3\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{A45C6597-F368-493E-8835-24497D597C9F}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{D848EE44-7215-4DC4-A960-B127CA3258B4}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12720" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -185,7 +185,7 @@
     <t>Итого</t>
   </si>
   <si>
-    <t>Штраф</t>
+    <t>Штраф, руб.</t>
   </si>
 </sst>
 </file>
@@ -527,7 +527,7 @@
   <dimension ref="A1:M46"/>
   <sheetViews>
     <sheetView tabSelected="1" zoomScaleNormal="100" workbookViewId="0">
-      <selection activeCell="J3" sqref="J3"/>
+      <selection activeCell="J2" sqref="J2"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
